--- a/Game.xlsx
+++ b/Game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sm/Documents/R Training/Mobile_Vs_Board/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEFC599-C12A-6B4F-B6FD-92F9CD5BC09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B4C764-8583-3440-997C-F26D7BACB305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16180" xr2:uid="{561B58E6-06FB-624F-9830-1D6B5011AA3A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>distribution</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>Value per 1000 student/ user adopting better dietary habits (million mmk per year)</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB2F8F2-B6D9-3540-8AF9-1DCA2A256F02}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,10 +823,10 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -854,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
         <v>21</v>
@@ -1348,11 +1351,11 @@
       <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="C39">
-        <v>5</v>
+      <c r="C39" t="s">
+        <v>104</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>79</v>
